--- a/Factures_Excel/1740 - Les Équipements Cofa.xlsx
+++ b/Factures_Excel/1740 - Les Équipements Cofa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E770C2-48DB-470D-8C1E-1E41C2364D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C63B87-C79B-4280-9409-9B83043E9ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="28-03-24" sheetId="4" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="2024-09-07 - 24-24512" sheetId="8" r:id="rId5"/>
     <sheet name="2024-10-17 - 24-24559" sheetId="9" r:id="rId6"/>
     <sheet name="2024-12-22 - 24-24715" sheetId="10" r:id="rId7"/>
+    <sheet name="2025-03-02 - 25-24803" sheetId="11" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -34,6 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'17-06-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2024-10-17 - 24-24559'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'2024-12-22 - 24-24715'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'2025-03-02 - 25-24803'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'28-03-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'28-07-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Activités!$A$1:$D$48</definedName>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="102">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -350,6 +352,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - Avancement dans la préparation des différentes déclarations de revenus;</t>
+  </si>
+  <si>
+    <t>Le 2 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24803</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Démarches d'obtention des numéros pour la nouvelle entité;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Production des déclarations de revenus des deux années ;</t>
   </si>
 </sst>
 </file>
@@ -1325,6 +1339,21 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1337,27 +1366,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1397,6 +1411,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,9 +1422,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1826,6 +1840,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7169" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646973F6-95EC-B821-A62A-D98B01AD1FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2593,14 +2673,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2621,271 +2701,271 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="168" t="s">
+      <c r="B35" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="168" t="s">
+      <c r="B37" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="168"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="168" t="s">
+      <c r="B39" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="168" t="s">
+      <c r="B41" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="168"/>
-      <c r="D41" s="168"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="168" t="s">
+      <c r="B43" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="168" t="s">
+      <c r="B45" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="168"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="168" t="s">
+      <c r="B47" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="168"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="168"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
+      <c r="B51" s="166"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="166"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="168"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="168"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="168"/>
-      <c r="D54" s="168"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="168"/>
+      <c r="B55" s="166"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="166"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="168"/>
-      <c r="C56" s="168"/>
-      <c r="D56" s="168"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="168"/>
-      <c r="D57" s="168"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="168"/>
-      <c r="C58" s="168"/>
-      <c r="D58" s="168"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="168"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
+      <c r="B59" s="166"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="166"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="168"/>
-      <c r="C60" s="168"/>
-      <c r="D60" s="168"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="166"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="168"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="168"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="166"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="168"/>
-      <c r="D63" s="168"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="166"/>
+      <c r="D63" s="166"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="168"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="168"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="166"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2915,17 +2995,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="168"/>
-      <c r="C67" s="168"/>
-      <c r="D67" s="168"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="166"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="168"/>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
+      <c r="B68" s="166"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="166"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3032,19 +3112,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="172"/>
-      <c r="C77" s="172"/>
-      <c r="D77" s="172"/>
+      <c r="B77" s="168"/>
+      <c r="C77" s="168"/>
+      <c r="D77" s="168"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169" t="s">
+      <c r="B78" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3052,9 +3132,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="172"/>
-      <c r="C79" s="172"/>
-      <c r="D79" s="172"/>
+      <c r="B79" s="168"/>
+      <c r="C79" s="168"/>
+      <c r="D79" s="168"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3089,31 +3169,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="166"/>
-      <c r="C83" s="166"/>
-      <c r="D83" s="166"/>
-      <c r="E83" s="166"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="171"/>
+      <c r="E83" s="171"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="174" t="s">
+      <c r="A84" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="174"/>
-      <c r="C84" s="174"/>
-      <c r="D84" s="174"/>
-      <c r="E84" s="174"/>
-      <c r="F84" s="174"/>
+      <c r="B84" s="165"/>
+      <c r="C84" s="165"/>
+      <c r="D84" s="165"/>
+      <c r="E84" s="165"/>
+      <c r="F84" s="165"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="170" t="s">
+      <c r="A85" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="170"/>
-      <c r="C85" s="170"/>
-      <c r="D85" s="170"/>
-      <c r="E85" s="170"/>
-      <c r="F85" s="170"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="174"/>
+      <c r="D85" s="174"/>
+      <c r="E85" s="174"/>
+      <c r="F85" s="174"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3125,26 +3205,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="167"/>
-      <c r="C87" s="167"/>
-      <c r="D87" s="167"/>
-      <c r="E87" s="167"/>
+      <c r="B87" s="172"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="172"/>
+      <c r="E87" s="172"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="173" t="s">
+      <c r="A88" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="173"/>
-      <c r="F88" s="173"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="164"/>
+      <c r="D88" s="164"/>
+      <c r="E88" s="164"/>
+      <c r="F88" s="164"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="164"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="165"/>
+      <c r="B90" s="169"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3154,34 +3234,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3198,6 +3250,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3356,14 +3436,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3384,275 +3464,275 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="168" t="s">
+      <c r="B35" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="168" t="s">
+      <c r="B37" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="168"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="168" t="s">
+      <c r="B39" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="168" t="s">
+      <c r="B41" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="168"/>
-      <c r="D41" s="168"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="168" t="s">
+      <c r="B43" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="168" t="s">
+      <c r="B45" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="168"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="168" t="s">
+      <c r="B47" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="168" t="s">
+      <c r="B49" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="168"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="168"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="168" t="s">
+      <c r="B51" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="166"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="168"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="168"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="168"/>
-      <c r="D54" s="168"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="168"/>
+      <c r="B55" s="166"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="166"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="168"/>
-      <c r="C56" s="168"/>
-      <c r="D56" s="168"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="168"/>
-      <c r="D57" s="168"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="168"/>
-      <c r="C58" s="168"/>
-      <c r="D58" s="168"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="168"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
+      <c r="B59" s="166"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="166"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="168"/>
-      <c r="C60" s="168"/>
-      <c r="D60" s="168"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="166"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="168"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="168"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="166"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="168"/>
-      <c r="D63" s="168"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="166"/>
+      <c r="D63" s="166"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="168"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="168"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="166"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3682,17 +3762,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="168"/>
-      <c r="C67" s="168"/>
-      <c r="D67" s="168"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="166"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="168"/>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
+      <c r="B68" s="166"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="166"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3799,19 +3879,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="172"/>
-      <c r="C77" s="172"/>
-      <c r="D77" s="172"/>
+      <c r="B77" s="168"/>
+      <c r="C77" s="168"/>
+      <c r="D77" s="168"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169" t="s">
+      <c r="B78" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3819,9 +3899,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="172"/>
-      <c r="C79" s="172"/>
-      <c r="D79" s="172"/>
+      <c r="B79" s="168"/>
+      <c r="C79" s="168"/>
+      <c r="D79" s="168"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3856,31 +3936,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="166"/>
-      <c r="C83" s="166"/>
-      <c r="D83" s="166"/>
-      <c r="E83" s="166"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="171"/>
+      <c r="E83" s="171"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="174" t="s">
+      <c r="A84" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="174"/>
-      <c r="C84" s="174"/>
-      <c r="D84" s="174"/>
-      <c r="E84" s="174"/>
-      <c r="F84" s="174"/>
+      <c r="B84" s="165"/>
+      <c r="C84" s="165"/>
+      <c r="D84" s="165"/>
+      <c r="E84" s="165"/>
+      <c r="F84" s="165"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="170" t="s">
+      <c r="A85" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="170"/>
-      <c r="C85" s="170"/>
-      <c r="D85" s="170"/>
-      <c r="E85" s="170"/>
-      <c r="F85" s="170"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="174"/>
+      <c r="D85" s="174"/>
+      <c r="E85" s="174"/>
+      <c r="F85" s="174"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3892,26 +3972,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="167"/>
-      <c r="C87" s="167"/>
-      <c r="D87" s="167"/>
-      <c r="E87" s="167"/>
+      <c r="B87" s="172"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="172"/>
+      <c r="E87" s="172"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="173" t="s">
+      <c r="A88" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="173"/>
-      <c r="F88" s="173"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="164"/>
+      <c r="D88" s="164"/>
+      <c r="E88" s="164"/>
+      <c r="F88" s="164"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="164"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="165"/>
+      <c r="B90" s="169"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3921,14 +4001,30 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -3941,30 +4037,14 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{4645B18B-11F9-4420-B47E-7849608956AE}">
@@ -4122,14 +4202,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4150,273 +4230,273 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="168"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="168" t="s">
+      <c r="B35" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="166"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="166"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="168" t="s">
+      <c r="B37" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="168"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="168" t="s">
+      <c r="B39" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="166"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="166"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="168" t="s">
+      <c r="B41" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="168"/>
-      <c r="D41" s="168"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="168" t="s">
+      <c r="B43" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="168" t="s">
+      <c r="B45" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="168"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="168" t="s">
+      <c r="B47" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="168" t="s">
+      <c r="B49" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="168"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="168"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
+      <c r="B51" s="166"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="166"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="168"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="166"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="168"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="166"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="168"/>
-      <c r="D54" s="168"/>
+      <c r="B54" s="166"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="166"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="168"/>
+      <c r="B55" s="166"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="166"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="168"/>
-      <c r="C56" s="168"/>
-      <c r="D56" s="168"/>
+      <c r="B56" s="166"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="166"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="168"/>
-      <c r="D57" s="168"/>
+      <c r="B57" s="166"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="168"/>
-      <c r="C58" s="168"/>
-      <c r="D58" s="168"/>
+      <c r="B58" s="166"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="166"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="168"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
+      <c r="B59" s="166"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="166"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="168"/>
-      <c r="C60" s="168"/>
-      <c r="D60" s="168"/>
+      <c r="B60" s="166"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="166"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="168"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="166"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="168"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="166"/>
+      <c r="D62" s="166"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="168"/>
-      <c r="D63" s="168"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="166"/>
+      <c r="D63" s="166"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="168"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="168"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="166"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -4446,17 +4526,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="168"/>
-      <c r="C67" s="168"/>
-      <c r="D67" s="168"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="166"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="168"/>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
+      <c r="B68" s="166"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="166"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -4563,19 +4643,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="172"/>
-      <c r="C77" s="172"/>
-      <c r="D77" s="172"/>
+      <c r="B77" s="168"/>
+      <c r="C77" s="168"/>
+      <c r="D77" s="168"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="169" t="s">
+      <c r="B78" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="169"/>
-      <c r="D78" s="169"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -4583,9 +4663,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="172"/>
-      <c r="C79" s="172"/>
-      <c r="D79" s="172"/>
+      <c r="B79" s="168"/>
+      <c r="C79" s="168"/>
+      <c r="D79" s="168"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -4620,31 +4700,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="166"/>
-      <c r="C83" s="166"/>
-      <c r="D83" s="166"/>
-      <c r="E83" s="166"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="171"/>
+      <c r="D83" s="171"/>
+      <c r="E83" s="171"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="174" t="s">
+      <c r="A84" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="174"/>
-      <c r="C84" s="174"/>
-      <c r="D84" s="174"/>
-      <c r="E84" s="174"/>
-      <c r="F84" s="174"/>
+      <c r="B84" s="165"/>
+      <c r="C84" s="165"/>
+      <c r="D84" s="165"/>
+      <c r="E84" s="165"/>
+      <c r="F84" s="165"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="170" t="s">
+      <c r="A85" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="170"/>
-      <c r="C85" s="170"/>
-      <c r="D85" s="170"/>
-      <c r="E85" s="170"/>
-      <c r="F85" s="170"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="174"/>
+      <c r="D85" s="174"/>
+      <c r="E85" s="174"/>
+      <c r="F85" s="174"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -4656,26 +4736,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="167"/>
-      <c r="C87" s="167"/>
-      <c r="D87" s="167"/>
-      <c r="E87" s="167"/>
+      <c r="B87" s="172"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="172"/>
+      <c r="E87" s="172"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="173" t="s">
+      <c r="A88" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="173"/>
-      <c r="F88" s="173"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="164"/>
+      <c r="D88" s="164"/>
+      <c r="E88" s="164"/>
+      <c r="F88" s="164"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="164"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="165"/>
+      <c r="B90" s="169"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4685,6 +4765,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -4697,38 +4809,6 @@
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{D03939A0-5EE4-4959-8A30-9380A25D187A}">
@@ -5928,14 +6008,14 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="173" t="s">
+      <c r="A88" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="173"/>
-      <c r="F88" s="173"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="164"/>
+      <c r="D88" s="164"/>
+      <c r="E88" s="164"/>
+      <c r="F88" s="164"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
@@ -6236,13 +6316,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="188"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6723,10 +6803,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="189" t="s">
+      <c r="B81" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="190"/>
+      <c r="C81" s="191"/>
       <c r="D81" s="161"/>
       <c r="E81" s="162">
         <v>5087.6400000000003</v>
@@ -6786,14 +6866,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="191" t="s">
+      <c r="A88" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="191"/>
-      <c r="C88" s="191"/>
-      <c r="D88" s="191"/>
-      <c r="E88" s="191"/>
-      <c r="F88" s="191"/>
+      <c r="B88" s="188"/>
+      <c r="C88" s="188"/>
+      <c r="D88" s="188"/>
+      <c r="E88" s="188"/>
+      <c r="F88" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6813,6 +6893,849 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E804D8ED-E1A1-4150-A550-4A11A87D1849}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="143" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="143" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="154" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="151">
+        <v>13.25</v>
+      </c>
+      <c r="D66" s="152">
+        <v>350</v>
+      </c>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="151"/>
+      <c r="D67" s="152"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="159"/>
+      <c r="D68" s="159"/>
+      <c r="E68" s="159"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>4637.5</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="160" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>4637.5</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>231.88</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>462.59</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>5331.97</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="190" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="191"/>
+      <c r="D81" s="161"/>
+      <c r="E81" s="162">
+        <v>5331.97</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="182"/>
+      <c r="D83" s="182"/>
+      <c r="E83" s="182"/>
+      <c r="F83" s="163"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="184" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="186" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="186"/>
+      <c r="C85" s="186"/>
+      <c r="D85" s="186"/>
+      <c r="E85" s="186"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="188"/>
+      <c r="C88" s="188"/>
+      <c r="D88" s="188"/>
+      <c r="E88" s="188"/>
+      <c r="F88" s="188"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4CA327-5B56-40BE-B293-246286FD3C0A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6995,7 +7918,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="59" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -7066,7 +7989,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F28" s="67"/>
     </row>
@@ -7079,13 +8002,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="188"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7117,7 +8040,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="143" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C34" s="144"/>
       <c r="D34" s="145"/>
@@ -7137,7 +8060,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="143" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C36" s="144"/>
       <c r="D36" s="145"/>
@@ -7157,7 +8080,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="143" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C38" s="144"/>
       <c r="D38" s="145"/>
@@ -7166,9 +8089,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
-      <c r="B39" s="143" t="s">
-        <v>87</v>
-      </c>
+      <c r="B39" s="143"/>
       <c r="C39" s="144"/>
       <c r="D39" s="145"/>
       <c r="E39" s="145"/>
@@ -7176,9 +8097,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
-      <c r="B40" s="143" t="s">
-        <v>97</v>
-      </c>
+      <c r="B40" s="143"/>
       <c r="C40" s="146"/>
       <c r="D40" s="145"/>
       <c r="E40" s="145"/>
@@ -7186,9 +8105,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
-      <c r="B41" s="143" t="s">
-        <v>87</v>
-      </c>
+      <c r="B41" s="143"/>
       <c r="C41" s="144"/>
       <c r="D41" s="145"/>
       <c r="E41" s="145"/>
@@ -7196,9 +8113,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
-      <c r="B42" s="143" t="s">
-        <v>9</v>
-      </c>
+      <c r="B42" s="143"/>
       <c r="C42" s="144"/>
       <c r="D42" s="145"/>
       <c r="E42" s="145"/>
@@ -7206,9 +8121,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
-      <c r="B43" s="143" t="s">
-        <v>87</v>
-      </c>
+      <c r="B43" s="143"/>
       <c r="C43" s="144"/>
       <c r="D43" s="145"/>
       <c r="E43" s="145"/>
@@ -7216,9 +8129,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
-      <c r="B44" s="143" t="s">
-        <v>34</v>
-      </c>
+      <c r="B44" s="143"/>
       <c r="C44" s="144"/>
       <c r="D44" s="145"/>
       <c r="E44" s="145"/>
@@ -7226,9 +8137,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
-      <c r="B45" s="143" t="s">
-        <v>87</v>
-      </c>
+      <c r="B45" s="143"/>
       <c r="C45" s="144"/>
       <c r="D45" s="145"/>
       <c r="E45" s="145"/>
@@ -7236,9 +8145,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
-      <c r="B46" s="143" t="s">
-        <v>39</v>
-      </c>
+      <c r="B46" s="143"/>
       <c r="C46" s="144"/>
       <c r="D46" s="145"/>
       <c r="E46" s="145"/>
@@ -7382,7 +8289,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="143"/>
+      <c r="B64" s="148"/>
       <c r="C64" s="92"/>
       <c r="D64" s="93"/>
       <c r="E64" s="145"/>
@@ -7404,10 +8311,10 @@
       <c r="A66" s="78"/>
       <c r="B66" s="143"/>
       <c r="C66" s="151">
-        <v>13.25</v>
+        <v>6.25</v>
       </c>
       <c r="D66" s="152">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E66" s="156"/>
       <c r="F66" s="156"/>
@@ -7436,7 +8343,7 @@
       <c r="C69" s="102"/>
       <c r="D69" s="60"/>
       <c r="E69" s="103">
-        <v>4637.5</v>
+        <v>2500</v>
       </c>
       <c r="F69" s="103"/>
     </row>
@@ -7484,7 +8391,7 @@
       <c r="C73" s="102"/>
       <c r="D73" s="60"/>
       <c r="E73" s="109">
-        <v>4637.5</v>
+        <v>2500</v>
       </c>
       <c r="F73" s="109"/>
     </row>
@@ -7498,7 +8405,7 @@
       </c>
       <c r="D74" s="106"/>
       <c r="E74" s="111">
-        <v>231.88</v>
+        <v>125</v>
       </c>
       <c r="F74" s="111"/>
     </row>
@@ -7512,7 +8419,7 @@
       </c>
       <c r="D75" s="106"/>
       <c r="E75" s="114">
-        <v>462.59</v>
+        <v>249.38</v>
       </c>
       <c r="F75" s="111"/>
     </row>
@@ -7532,7 +8439,7 @@
       <c r="C77" s="102"/>
       <c r="D77" s="118"/>
       <c r="E77" s="119">
-        <v>5331.97</v>
+        <v>2874.38</v>
       </c>
       <c r="F77" s="120"/>
     </row>
@@ -7566,13 +8473,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="189" t="s">
+      <c r="B81" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="190"/>
+      <c r="C81" s="191"/>
       <c r="D81" s="161"/>
       <c r="E81" s="162">
-        <v>5331.97</v>
+        <v>2874.38</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -7629,14 +8536,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="191" t="s">
+      <c r="A88" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="191"/>
-      <c r="C88" s="191"/>
-      <c r="D88" s="191"/>
-      <c r="E88" s="191"/>
-      <c r="F88" s="191"/>
+      <c r="B88" s="188"/>
+      <c r="C88" s="188"/>
+      <c r="D88" s="188"/>
+      <c r="E88" s="188"/>
+      <c r="F88" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="6">
